--- a/Excel_filer/Wingate_data.xlsx
+++ b/Excel_filer/Wingate_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blabe\Documents\Arbeidskrav_1_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blabe\Documents\Arbeidskrav\R_directory\Excel_filer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24DE1D6-8174-431C-AE78-C227F5F35BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F3F7EE-9FB9-4AD8-B05A-51959B91B8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{56C97BF8-F7D3-4463-A25F-BF9571855D48}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>FP</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Wsnitt</t>
-  </si>
-  <si>
-    <t>Runde</t>
   </si>
   <si>
     <t>Kommentar</t>
@@ -425,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C020E74-B743-4250-BEE6-BF7573502EB8}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,7 +433,7 @@
     <col min="6" max="6" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,287 +441,236 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>796</v>
+      </c>
+      <c r="D2">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>708</v>
+      </c>
+      <c r="D3">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="C4">
+        <v>762</v>
+      </c>
+      <c r="D4">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>760</v>
+      </c>
+      <c r="D5">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>796</v>
-      </c>
-      <c r="E2">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>708</v>
-      </c>
-      <c r="E3">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>762</v>
-      </c>
-      <c r="E4">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>760</v>
-      </c>
-      <c r="E5">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
+      <c r="C6">
+        <v>775</v>
+      </c>
+      <c r="D6">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>688</v>
+      </c>
+      <c r="D7">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>787</v>
+      </c>
+      <c r="D8">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>756</v>
+      </c>
+      <c r="D9">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>933</v>
+      </c>
+      <c r="D10">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>908</v>
+      </c>
+      <c r="D11">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
         <v>3</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>775</v>
-      </c>
-      <c r="E6">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>688</v>
-      </c>
-      <c r="E7">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
+      <c r="C12">
+        <v>856</v>
+      </c>
+      <c r="D12">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
         <v>4</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>787</v>
-      </c>
-      <c r="E8">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>756</v>
-      </c>
-      <c r="E9">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>933</v>
-      </c>
-      <c r="E10">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
+      <c r="C13">
         <v>908</v>
       </c>
-      <c r="E11">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>856</v>
-      </c>
-      <c r="E12">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
       <c r="D13">
-        <v>908</v>
-      </c>
-      <c r="E13">
         <v>1236</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>930</v>
       </c>
       <c r="D14">
-        <v>930</v>
-      </c>
-      <c r="E14">
         <v>1295</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>828</v>
       </c>
       <c r="D15">
-        <v>828</v>
-      </c>
-      <c r="E15">
         <v>1195</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>815</v>
       </c>
       <c r="D16">
-        <v>815</v>
-      </c>
-      <c r="E16">
         <v>1172</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>832</v>
       </c>
       <c r="D17">
-        <v>832</v>
-      </c>
-      <c r="E17">
         <v>1168</v>
       </c>
     </row>
